--- a/Notion data/Lũy kế tháng SÓC TRĂNG.xlsx
+++ b/Notion data/Lũy kế tháng SÓC TRĂNG.xlsx
@@ -683,7 +683,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -883,7 +883,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -2823,7 +2823,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>

--- a/Notion data/Lũy kế tháng SÓC TRĂNG.xlsx
+++ b/Notion data/Lũy kế tháng SÓC TRĂNG.xlsx
@@ -683,7 +683,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -883,7 +883,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -2823,7 +2823,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>

--- a/Notion data/Lũy kế tháng SÓC TRĂNG.xlsx
+++ b/Notion data/Lũy kế tháng SÓC TRĂNG.xlsx
@@ -196,7 +196,7 @@
     <t>2024-06-26T06:02:00.000Z</t>
   </si>
   <si>
-    <t>2024-07-28T16:31:00.000Z</t>
+    <t>2024-07-31T18:24:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/Th-ng-2-0cf2885da955464bba24838aa8df8185</t>
@@ -2231,7 +2231,7 @@
         <v>79</v>
       </c>
       <c r="S13">
-        <v>167960000</v>
+        <v>183660000</v>
       </c>
       <c r="T13" t="s">
         <v>80</v>
@@ -2243,7 +2243,7 @@
         <v>79</v>
       </c>
       <c r="W13">
-        <v>114628000</v>
+        <v>146528000</v>
       </c>
       <c r="X13" t="s">
         <v>82</v>
@@ -2255,7 +2255,7 @@
         <v>79</v>
       </c>
       <c r="AA13">
-        <v>15000000</v>
+        <v>23000000</v>
       </c>
       <c r="AB13" t="s">
         <v>83</v>
@@ -2267,7 +2267,7 @@
         <v>79</v>
       </c>
       <c r="AE13">
-        <v>282588000</v>
+        <v>330188000</v>
       </c>
       <c r="AF13" t="s">
         <v>84</v>
@@ -2276,7 +2276,7 @@
         <v>79</v>
       </c>
       <c r="AH13">
-        <v>249588000</v>
+        <v>293188000</v>
       </c>
       <c r="AI13" t="s">
         <v>85</v>
@@ -2285,7 +2285,7 @@
         <v>79</v>
       </c>
       <c r="AK13">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AL13" t="s">
         <v>86</v>
@@ -2294,7 +2294,7 @@
         <v>79</v>
       </c>
       <c r="AN13">
-        <v>33000000</v>
+        <v>37000000</v>
       </c>
       <c r="AO13" t="s">
         <v>87</v>
@@ -2303,7 +2303,7 @@
         <v>79</v>
       </c>
       <c r="AQ13">
-        <v>264588000</v>
+        <v>316188000</v>
       </c>
       <c r="AR13" t="s">
         <v>88</v>

--- a/Notion data/Lũy kế tháng SÓC TRĂNG.xlsx
+++ b/Notion data/Lũy kế tháng SÓC TRĂNG.xlsx
@@ -196,7 +196,7 @@
     <t>2024-06-26T06:02:00.000Z</t>
   </si>
   <si>
-    <t>2024-07-31T18:24:00.000Z</t>
+    <t>2024-08-03T03:17:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/Th-ng-2-0cf2885da955464bba24838aa8df8185</t>
@@ -1469,7 +1469,7 @@
         <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
@@ -1490,7 +1490,7 @@
         <v>73</v>
       </c>
       <c r="N7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O7" t="s">
         <v>76</v>
@@ -1504,6 +1504,9 @@
       <c r="R7" t="s">
         <v>79</v>
       </c>
+      <c r="S7">
+        <v>180000</v>
+      </c>
       <c r="T7" t="s">
         <v>80</v>
       </c>
@@ -1514,7 +1517,7 @@
         <v>79</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>5820000</v>
       </c>
       <c r="X7" t="s">
         <v>82</v>
@@ -1526,7 +1529,7 @@
         <v>79</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="AB7" t="s">
         <v>83</v>
@@ -1538,7 +1541,7 @@
         <v>79</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>6000000</v>
       </c>
       <c r="AF7" t="s">
         <v>84</v>
@@ -1546,23 +1549,35 @@
       <c r="AG7" t="s">
         <v>79</v>
       </c>
+      <c r="AH7">
+        <v>6000000</v>
+      </c>
       <c r="AI7" t="s">
         <v>85</v>
       </c>
       <c r="AJ7" t="s">
         <v>79</v>
       </c>
+      <c r="AK7">
+        <v>2</v>
+      </c>
       <c r="AL7" t="s">
         <v>86</v>
       </c>
       <c r="AM7" t="s">
         <v>79</v>
       </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
       <c r="AO7" t="s">
         <v>87</v>
       </c>
       <c r="AP7" t="s">
         <v>79</v>
+      </c>
+      <c r="AQ7">
+        <v>8000000</v>
       </c>
       <c r="AR7" t="s">
         <v>88</v>

--- a/Notion data/Lũy kế tháng SÓC TRĂNG.xlsx
+++ b/Notion data/Lũy kế tháng SÓC TRĂNG.xlsx
@@ -196,7 +196,7 @@
     <t>2024-06-26T06:02:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-03T03:17:00.000Z</t>
+    <t>2024-08-03T03:28:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/Th-ng-2-0cf2885da955464bba24838aa8df8185</t>

--- a/Notion data/Lũy kế tháng SÓC TRĂNG.xlsx
+++ b/Notion data/Lũy kế tháng SÓC TRĂNG.xlsx
@@ -196,7 +196,7 @@
     <t>2024-06-26T06:02:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-03T03:28:00.000Z</t>
+    <t>2024-08-03T03:54:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/Th-ng-2-0cf2885da955464bba24838aa8df8185</t>

--- a/Notion data/Lũy kế tháng SÓC TRĂNG.xlsx
+++ b/Notion data/Lũy kế tháng SÓC TRĂNG.xlsx
@@ -196,7 +196,7 @@
     <t>2024-06-26T06:02:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-03T03:54:00.000Z</t>
+    <t>2024-08-03T20:14:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/Th-ng-2-0cf2885da955464bba24838aa8df8185</t>
@@ -1505,7 +1505,7 @@
         <v>79</v>
       </c>
       <c r="S7">
-        <v>180000</v>
+        <v>1560000</v>
       </c>
       <c r="T7" t="s">
         <v>80</v>
@@ -1517,7 +1517,7 @@
         <v>79</v>
       </c>
       <c r="W7">
-        <v>5820000</v>
+        <v>10440000</v>
       </c>
       <c r="X7" t="s">
         <v>82</v>
@@ -1541,7 +1541,7 @@
         <v>79</v>
       </c>
       <c r="AE7">
-        <v>6000000</v>
+        <v>12000000</v>
       </c>
       <c r="AF7" t="s">
         <v>84</v>
@@ -1550,7 +1550,7 @@
         <v>79</v>
       </c>
       <c r="AH7">
-        <v>6000000</v>
+        <v>12000000</v>
       </c>
       <c r="AI7" t="s">
         <v>85</v>
@@ -1577,7 +1577,7 @@
         <v>79</v>
       </c>
       <c r="AQ7">
-        <v>8000000</v>
+        <v>14000000</v>
       </c>
       <c r="AR7" t="s">
         <v>88</v>

--- a/Notion data/Lũy kế tháng SÓC TRĂNG.xlsx
+++ b/Notion data/Lũy kế tháng SÓC TRĂNG.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="102">
   <si>
     <t>object</t>
   </si>
@@ -196,7 +196,10 @@
     <t>2024-06-26T06:02:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-03T20:14:00.000Z</t>
+    <t>2024-08-03T21:27:00.000Z</t>
+  </si>
+  <si>
+    <t>2024-08-03T21:28:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/Th-ng-2-0cf2885da955464bba24838aa8df8185</t>
@@ -853,115 +856,115 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" t="s">
         <v>74</v>
       </c>
-      <c r="M2" t="s">
-        <v>73</v>
-      </c>
       <c r="N2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S2">
         <v>23676000</v>
       </c>
       <c r="T2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W2">
         <v>96219000</v>
       </c>
       <c r="X2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA2">
         <v>23498000</v>
       </c>
       <c r="AB2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE2">
         <v>119895000</v>
       </c>
       <c r="AF2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH2">
         <v>106895000</v>
       </c>
       <c r="AI2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AJ2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK2">
         <v>16</v>
       </c>
       <c r="AL2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AN2">
         <v>13000000</v>
       </c>
       <c r="AO2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AP2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AQ2">
         <v>130393000</v>
       </c>
       <c r="AR2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AS2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AT2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:46">
@@ -984,115 +987,115 @@
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L3" t="s">
+        <v>75</v>
+      </c>
+      <c r="M3" t="s">
         <v>74</v>
       </c>
-      <c r="M3" t="s">
-        <v>73</v>
-      </c>
       <c r="N3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S3">
         <v>328839000</v>
       </c>
       <c r="T3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W3">
         <v>141611000</v>
       </c>
       <c r="X3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA3">
         <v>74400000</v>
       </c>
       <c r="AB3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE3">
         <v>470450000</v>
       </c>
       <c r="AF3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH3">
         <v>447050000</v>
       </c>
       <c r="AI3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AJ3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK3">
         <v>26</v>
       </c>
       <c r="AL3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AN3">
         <v>23400000</v>
       </c>
       <c r="AO3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AP3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AQ3">
         <v>521450000</v>
       </c>
       <c r="AR3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AS3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AT3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:46">
@@ -1115,100 +1118,100 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" t="s">
         <v>74</v>
       </c>
-      <c r="M4" t="s">
-        <v>73</v>
-      </c>
       <c r="N4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AJ4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AO4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AP4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AR4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AS4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AT4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:46">
@@ -1231,100 +1234,100 @@
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="s">
         <v>74</v>
       </c>
-      <c r="M5" t="s">
-        <v>73</v>
-      </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AJ5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AO5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AP5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AR5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AS5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AT5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:46">
@@ -1347,115 +1350,115 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" t="s">
         <v>74</v>
       </c>
-      <c r="M6" t="s">
-        <v>73</v>
-      </c>
       <c r="N6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S6">
         <v>174270000</v>
       </c>
       <c r="T6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W6">
         <v>227830000</v>
       </c>
       <c r="X6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA6">
         <v>28800000</v>
       </c>
       <c r="AB6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE6">
         <v>402100000</v>
       </c>
       <c r="AF6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH6">
         <v>382100000</v>
       </c>
       <c r="AI6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AJ6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK6">
         <v>39</v>
       </c>
       <c r="AL6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AN6">
         <v>20000000</v>
       </c>
       <c r="AO6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AP6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AQ6">
         <v>410900000</v>
       </c>
       <c r="AR6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AS6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AT6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:46">
@@ -1469,7 +1472,7 @@
         <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
@@ -1478,115 +1481,115 @@
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" t="s">
         <v>74</v>
       </c>
-      <c r="M7" t="s">
-        <v>73</v>
-      </c>
       <c r="N7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S7">
         <v>1560000</v>
       </c>
       <c r="T7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W7">
         <v>10440000</v>
       </c>
       <c r="X7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA7">
         <v>2000000</v>
       </c>
       <c r="AB7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE7">
         <v>12000000</v>
       </c>
       <c r="AF7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH7">
         <v>12000000</v>
       </c>
       <c r="AI7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AJ7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK7">
         <v>2</v>
       </c>
       <c r="AL7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AN7">
         <v>0</v>
       </c>
       <c r="AO7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AP7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AQ7">
         <v>14000000</v>
       </c>
       <c r="AR7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AS7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AT7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:46">
@@ -1600,7 +1603,7 @@
         <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -1609,115 +1612,115 @@
         <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L8" t="s">
+        <v>75</v>
+      </c>
+      <c r="M8" t="s">
         <v>74</v>
       </c>
-      <c r="M8" t="s">
-        <v>73</v>
-      </c>
       <c r="N8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S8">
         <v>21144000</v>
       </c>
       <c r="T8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W8">
         <v>112842000</v>
       </c>
       <c r="X8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA8">
         <v>44286000</v>
       </c>
       <c r="AB8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE8">
         <v>133986000</v>
       </c>
       <c r="AF8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH8">
         <v>114800000</v>
       </c>
       <c r="AI8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AJ8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK8">
         <v>23</v>
       </c>
       <c r="AL8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AN8">
         <v>19186000</v>
       </c>
       <c r="AO8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AP8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AQ8">
         <v>159086000</v>
       </c>
       <c r="AR8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AS8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AT8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:46">
@@ -1740,100 +1743,100 @@
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L9" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" t="s">
         <v>74</v>
       </c>
-      <c r="M9" t="s">
-        <v>73</v>
-      </c>
       <c r="N9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AJ9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AO9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AP9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AR9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AS9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AT9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:46">
@@ -1856,100 +1859,100 @@
         <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L10" t="s">
+        <v>75</v>
+      </c>
+      <c r="M10" t="s">
         <v>74</v>
       </c>
-      <c r="M10" t="s">
-        <v>73</v>
-      </c>
       <c r="N10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
       <c r="AB10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE10">
         <v>0</v>
       </c>
       <c r="AF10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AJ10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AO10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AP10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AR10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AS10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AT10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:46">
@@ -1963,7 +1966,7 @@
         <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
@@ -1972,115 +1975,115 @@
         <v>0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" t="s">
+        <v>75</v>
+      </c>
+      <c r="M11" t="s">
         <v>74</v>
       </c>
-      <c r="M11" t="s">
-        <v>73</v>
-      </c>
       <c r="N11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S11">
         <v>106196000</v>
       </c>
       <c r="T11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W11">
         <v>200504000</v>
       </c>
       <c r="X11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA11">
         <v>59600000</v>
       </c>
       <c r="AB11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE11">
         <v>306700000</v>
       </c>
       <c r="AF11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH11">
         <v>244700000</v>
       </c>
       <c r="AI11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AJ11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK11">
         <v>23</v>
       </c>
       <c r="AL11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AN11">
         <v>62000000</v>
       </c>
       <c r="AO11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AP11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AQ11">
         <v>304300000</v>
       </c>
       <c r="AR11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AS11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AT11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:46">
@@ -2103,100 +2106,100 @@
         <v>0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L12" t="s">
+        <v>75</v>
+      </c>
+      <c r="M12" t="s">
         <v>74</v>
       </c>
-      <c r="M12" t="s">
-        <v>73</v>
-      </c>
       <c r="N12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA12">
         <v>0</v>
       </c>
       <c r="AB12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE12">
         <v>0</v>
       </c>
       <c r="AF12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AJ12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AO12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AP12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AR12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AS12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AT12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:46">
@@ -2210,7 +2213,7 @@
         <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
@@ -2219,115 +2222,115 @@
         <v>0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" t="s">
+        <v>75</v>
+      </c>
+      <c r="M13" t="s">
         <v>74</v>
       </c>
-      <c r="M13" t="s">
-        <v>73</v>
-      </c>
       <c r="N13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S13">
         <v>183660000</v>
       </c>
       <c r="T13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W13">
         <v>146528000</v>
       </c>
       <c r="X13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA13">
         <v>23000000</v>
       </c>
       <c r="AB13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE13">
         <v>330188000</v>
       </c>
       <c r="AF13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH13">
         <v>293188000</v>
       </c>
       <c r="AI13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AJ13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK13">
         <v>30</v>
       </c>
       <c r="AL13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AN13">
         <v>37000000</v>
       </c>
       <c r="AO13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AP13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AQ13">
         <v>316188000</v>
       </c>
       <c r="AR13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AS13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AT13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/Notion data/Lũy kế tháng SÓC TRĂNG.xlsx
+++ b/Notion data/Lũy kế tháng SÓC TRĂNG.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="101">
   <si>
     <t>object</t>
   </si>
@@ -196,10 +196,7 @@
     <t>2024-06-26T06:02:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-03T21:27:00.000Z</t>
-  </si>
-  <si>
-    <t>2024-08-03T21:28:00.000Z</t>
+    <t>2024-08-09T19:28:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/Th-ng-2-0cf2885da955464bba24838aa8df8185</t>
@@ -856,115 +853,115 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" t="s">
         <v>74</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N2" t="s">
         <v>75</v>
       </c>
-      <c r="M2" t="s">
-        <v>74</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>76</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>77</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>78</v>
       </c>
-      <c r="Q2" t="s">
-        <v>79</v>
-      </c>
       <c r="R2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S2">
         <v>23676000</v>
       </c>
       <c r="T2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W2">
         <v>96219000</v>
       </c>
       <c r="X2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA2">
         <v>23498000</v>
       </c>
       <c r="AB2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AC2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE2">
         <v>119895000</v>
       </c>
       <c r="AF2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH2">
         <v>106895000</v>
       </c>
       <c r="AI2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AJ2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AK2">
         <v>16</v>
       </c>
       <c r="AL2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AM2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AN2">
         <v>13000000</v>
       </c>
       <c r="AO2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AQ2">
         <v>130393000</v>
       </c>
       <c r="AR2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT2" t="s">
         <v>89</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:46">
@@ -987,115 +984,115 @@
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K3" t="s">
+        <v>73</v>
+      </c>
+      <c r="L3" t="s">
         <v>74</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
+        <v>73</v>
+      </c>
+      <c r="N3" t="s">
         <v>75</v>
       </c>
-      <c r="M3" t="s">
-        <v>74</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>76</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>77</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>78</v>
       </c>
-      <c r="Q3" t="s">
-        <v>79</v>
-      </c>
       <c r="R3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S3">
         <v>328839000</v>
       </c>
       <c r="T3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W3">
         <v>141611000</v>
       </c>
       <c r="X3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA3">
         <v>74400000</v>
       </c>
       <c r="AB3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AC3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE3">
         <v>470450000</v>
       </c>
       <c r="AF3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH3">
         <v>447050000</v>
       </c>
       <c r="AI3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AJ3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AK3">
         <v>26</v>
       </c>
       <c r="AL3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AM3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AN3">
         <v>23400000</v>
       </c>
       <c r="AO3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AQ3">
         <v>521450000</v>
       </c>
       <c r="AR3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AS3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AT3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:46">
@@ -1118,100 +1115,100 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L4" t="s">
         <v>74</v>
       </c>
-      <c r="L4" t="s">
-        <v>75</v>
-      </c>
       <c r="M4" t="s">
+        <v>73</v>
+      </c>
+      <c r="N4" t="s">
         <v>74</v>
       </c>
-      <c r="N4" t="s">
-        <v>75</v>
-      </c>
       <c r="O4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P4" t="s">
         <v>77</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>78</v>
       </c>
-      <c r="Q4" t="s">
-        <v>79</v>
-      </c>
       <c r="R4" t="s">
+        <v>79</v>
+      </c>
+      <c r="T4" t="s">
         <v>80</v>
       </c>
-      <c r="T4" t="s">
-        <v>81</v>
-      </c>
       <c r="U4" t="s">
+        <v>81</v>
+      </c>
+      <c r="V4" t="s">
+        <v>79</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4" t="s">
         <v>82</v>
       </c>
-      <c r="V4" t="s">
-        <v>80</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="s">
         <v>83</v>
       </c>
-      <c r="Y4" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="s">
         <v>84</v>
       </c>
-      <c r="AC4" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI4" t="s">
         <v>85</v>
       </c>
-      <c r="AG4" t="s">
-        <v>80</v>
-      </c>
-      <c r="AI4" t="s">
+      <c r="AJ4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL4" t="s">
         <v>86</v>
       </c>
-      <c r="AJ4" t="s">
-        <v>80</v>
-      </c>
-      <c r="AL4" t="s">
+      <c r="AM4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO4" t="s">
         <v>87</v>
       </c>
-      <c r="AM4" t="s">
-        <v>80</v>
-      </c>
-      <c r="AO4" t="s">
+      <c r="AP4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR4" t="s">
         <v>88</v>
       </c>
-      <c r="AP4" t="s">
-        <v>80</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>89</v>
-      </c>
       <c r="AS4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AT4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:46">
@@ -1225,7 +1222,7 @@
         <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
@@ -1234,100 +1231,115 @@
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
         <v>74</v>
       </c>
-      <c r="L5" t="s">
-        <v>75</v>
-      </c>
       <c r="M5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N5" t="s">
         <v>75</v>
       </c>
       <c r="O5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P5" t="s">
         <v>77</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>78</v>
       </c>
-      <c r="Q5" t="s">
-        <v>79</v>
-      </c>
       <c r="R5" t="s">
+        <v>79</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5" t="s">
         <v>80</v>
       </c>
-      <c r="T5" t="s">
-        <v>81</v>
-      </c>
       <c r="U5" t="s">
+        <v>81</v>
+      </c>
+      <c r="V5" t="s">
+        <v>79</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5" t="s">
         <v>82</v>
       </c>
-      <c r="V5" t="s">
-        <v>80</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="s">
         <v>83</v>
       </c>
-      <c r="Y5" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="s">
         <v>84</v>
       </c>
-      <c r="AC5" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5" t="s">
+      <c r="AG5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5" t="s">
         <v>85</v>
       </c>
-      <c r="AG5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AI5" t="s">
+      <c r="AJ5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK5">
+        <v>1</v>
+      </c>
+      <c r="AL5" t="s">
         <v>86</v>
       </c>
-      <c r="AJ5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AL5" t="s">
+      <c r="AM5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="s">
         <v>87</v>
       </c>
-      <c r="AM5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AO5" t="s">
+      <c r="AP5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="s">
         <v>88</v>
       </c>
-      <c r="AP5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>89</v>
-      </c>
       <c r="AS5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AT5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:46">
@@ -1350,115 +1362,115 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K6" t="s">
+        <v>73</v>
+      </c>
+      <c r="L6" t="s">
         <v>74</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
+        <v>73</v>
+      </c>
+      <c r="N6" t="s">
         <v>75</v>
       </c>
-      <c r="M6" t="s">
-        <v>74</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>76</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>77</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>78</v>
       </c>
-      <c r="Q6" t="s">
-        <v>79</v>
-      </c>
       <c r="R6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S6">
         <v>174270000</v>
       </c>
       <c r="T6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W6">
         <v>227830000</v>
       </c>
       <c r="X6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA6">
         <v>28800000</v>
       </c>
       <c r="AB6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AC6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE6">
         <v>402100000</v>
       </c>
       <c r="AF6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH6">
         <v>382100000</v>
       </c>
       <c r="AI6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AJ6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AK6">
         <v>39</v>
       </c>
       <c r="AL6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AM6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AN6">
         <v>20000000</v>
       </c>
       <c r="AO6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AQ6">
         <v>410900000</v>
       </c>
       <c r="AR6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AS6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AT6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:46">
@@ -1472,7 +1484,7 @@
         <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
@@ -1481,115 +1493,115 @@
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L7" t="s">
         <v>74</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N7" t="s">
         <v>75</v>
       </c>
-      <c r="M7" t="s">
-        <v>74</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>76</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>77</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>78</v>
       </c>
-      <c r="Q7" t="s">
-        <v>79</v>
-      </c>
       <c r="R7" t="s">
+        <v>79</v>
+      </c>
+      <c r="S7">
+        <v>21500000</v>
+      </c>
+      <c r="T7" t="s">
         <v>80</v>
       </c>
-      <c r="S7">
-        <v>1560000</v>
-      </c>
-      <c r="T7" t="s">
-        <v>81</v>
-      </c>
       <c r="U7" t="s">
+        <v>81</v>
+      </c>
+      <c r="V7" t="s">
+        <v>79</v>
+      </c>
+      <c r="W7">
+        <v>76000000</v>
+      </c>
+      <c r="X7" t="s">
         <v>82</v>
       </c>
-      <c r="V7" t="s">
-        <v>80</v>
-      </c>
-      <c r="W7">
-        <v>10440000</v>
-      </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA7">
+        <v>28000000</v>
+      </c>
+      <c r="AB7" t="s">
         <v>83</v>
       </c>
-      <c r="Y7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA7">
-        <v>2000000</v>
-      </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE7">
+        <v>97500000</v>
+      </c>
+      <c r="AF7" t="s">
         <v>84</v>
       </c>
-      <c r="AC7" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE7">
-        <v>12000000</v>
-      </c>
-      <c r="AF7" t="s">
+      <c r="AG7" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH7">
+        <v>85000000</v>
+      </c>
+      <c r="AI7" t="s">
         <v>85</v>
       </c>
-      <c r="AG7" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH7">
-        <v>12000000</v>
-      </c>
-      <c r="AI7" t="s">
+      <c r="AJ7" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK7">
+        <v>8</v>
+      </c>
+      <c r="AL7" t="s">
         <v>86</v>
       </c>
-      <c r="AJ7" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK7">
-        <v>2</v>
-      </c>
-      <c r="AL7" t="s">
+      <c r="AM7" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN7">
+        <v>12500000</v>
+      </c>
+      <c r="AO7" t="s">
         <v>87</v>
       </c>
-      <c r="AM7" t="s">
-        <v>80</v>
-      </c>
-      <c r="AN7">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="s">
+      <c r="AP7" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ7">
+        <v>113000000</v>
+      </c>
+      <c r="AR7" t="s">
         <v>88</v>
       </c>
-      <c r="AP7" t="s">
-        <v>80</v>
-      </c>
-      <c r="AQ7">
-        <v>14000000</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>89</v>
-      </c>
       <c r="AS7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AT7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:46">
@@ -1603,7 +1615,7 @@
         <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -1612,115 +1624,115 @@
         <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K8" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" t="s">
         <v>74</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
+        <v>73</v>
+      </c>
+      <c r="N8" t="s">
         <v>75</v>
       </c>
-      <c r="M8" t="s">
-        <v>74</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>76</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>77</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>78</v>
       </c>
-      <c r="Q8" t="s">
-        <v>79</v>
-      </c>
       <c r="R8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S8">
         <v>21144000</v>
       </c>
       <c r="T8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W8">
         <v>112842000</v>
       </c>
       <c r="X8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA8">
         <v>44286000</v>
       </c>
       <c r="AB8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AC8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE8">
         <v>133986000</v>
       </c>
       <c r="AF8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH8">
         <v>114800000</v>
       </c>
       <c r="AI8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AJ8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AK8">
         <v>23</v>
       </c>
       <c r="AL8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AM8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AN8">
         <v>19186000</v>
       </c>
       <c r="AO8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AQ8">
         <v>159086000</v>
       </c>
       <c r="AR8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AS8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AT8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:46">
@@ -1743,100 +1755,100 @@
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L9" t="s">
         <v>74</v>
       </c>
-      <c r="L9" t="s">
-        <v>75</v>
-      </c>
       <c r="M9" t="s">
+        <v>73</v>
+      </c>
+      <c r="N9" t="s">
         <v>74</v>
       </c>
-      <c r="N9" t="s">
-        <v>75</v>
-      </c>
       <c r="O9" t="s">
+        <v>76</v>
+      </c>
+      <c r="P9" t="s">
         <v>77</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>78</v>
       </c>
-      <c r="Q9" t="s">
-        <v>79</v>
-      </c>
       <c r="R9" t="s">
+        <v>79</v>
+      </c>
+      <c r="T9" t="s">
         <v>80</v>
       </c>
-      <c r="T9" t="s">
-        <v>81</v>
-      </c>
       <c r="U9" t="s">
+        <v>81</v>
+      </c>
+      <c r="V9" t="s">
+        <v>79</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9" t="s">
         <v>82</v>
       </c>
-      <c r="V9" t="s">
-        <v>80</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="s">
         <v>83</v>
       </c>
-      <c r="Y9" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="s">
         <v>84</v>
       </c>
-      <c r="AC9" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9" t="s">
+      <c r="AG9" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI9" t="s">
         <v>85</v>
       </c>
-      <c r="AG9" t="s">
-        <v>80</v>
-      </c>
-      <c r="AI9" t="s">
+      <c r="AJ9" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL9" t="s">
         <v>86</v>
       </c>
-      <c r="AJ9" t="s">
-        <v>80</v>
-      </c>
-      <c r="AL9" t="s">
+      <c r="AM9" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO9" t="s">
         <v>87</v>
       </c>
-      <c r="AM9" t="s">
-        <v>80</v>
-      </c>
-      <c r="AO9" t="s">
+      <c r="AP9" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR9" t="s">
         <v>88</v>
       </c>
-      <c r="AP9" t="s">
-        <v>80</v>
-      </c>
-      <c r="AR9" t="s">
-        <v>89</v>
-      </c>
       <c r="AS9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AT9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:46">
@@ -1859,100 +1871,100 @@
         <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K10" t="s">
+        <v>73</v>
+      </c>
+      <c r="L10" t="s">
         <v>74</v>
       </c>
-      <c r="L10" t="s">
-        <v>75</v>
-      </c>
       <c r="M10" t="s">
+        <v>73</v>
+      </c>
+      <c r="N10" t="s">
         <v>74</v>
       </c>
-      <c r="N10" t="s">
-        <v>75</v>
-      </c>
       <c r="O10" t="s">
+        <v>76</v>
+      </c>
+      <c r="P10" t="s">
         <v>77</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>78</v>
       </c>
-      <c r="Q10" t="s">
-        <v>79</v>
-      </c>
       <c r="R10" t="s">
+        <v>79</v>
+      </c>
+      <c r="T10" t="s">
         <v>80</v>
       </c>
-      <c r="T10" t="s">
-        <v>81</v>
-      </c>
       <c r="U10" t="s">
+        <v>81</v>
+      </c>
+      <c r="V10" t="s">
+        <v>79</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10" t="s">
         <v>82</v>
       </c>
-      <c r="V10" t="s">
-        <v>80</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="s">
         <v>83</v>
       </c>
-      <c r="Y10" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="s">
         <v>84</v>
       </c>
-      <c r="AC10" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10" t="s">
+      <c r="AG10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI10" t="s">
         <v>85</v>
       </c>
-      <c r="AG10" t="s">
-        <v>80</v>
-      </c>
-      <c r="AI10" t="s">
+      <c r="AJ10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL10" t="s">
         <v>86</v>
       </c>
-      <c r="AJ10" t="s">
-        <v>80</v>
-      </c>
-      <c r="AL10" t="s">
+      <c r="AM10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO10" t="s">
         <v>87</v>
       </c>
-      <c r="AM10" t="s">
-        <v>80</v>
-      </c>
-      <c r="AO10" t="s">
+      <c r="AP10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR10" t="s">
         <v>88</v>
       </c>
-      <c r="AP10" t="s">
-        <v>80</v>
-      </c>
-      <c r="AR10" t="s">
-        <v>89</v>
-      </c>
       <c r="AS10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AT10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:46">
@@ -1966,7 +1978,7 @@
         <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
@@ -1975,115 +1987,115 @@
         <v>0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K11" t="s">
+        <v>73</v>
+      </c>
+      <c r="L11" t="s">
         <v>74</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
+        <v>73</v>
+      </c>
+      <c r="N11" t="s">
         <v>75</v>
       </c>
-      <c r="M11" t="s">
-        <v>74</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>76</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>77</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>78</v>
       </c>
-      <c r="Q11" t="s">
-        <v>79</v>
-      </c>
       <c r="R11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S11">
         <v>106196000</v>
       </c>
       <c r="T11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W11">
         <v>200504000</v>
       </c>
       <c r="X11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA11">
         <v>59600000</v>
       </c>
       <c r="AB11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AC11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE11">
         <v>306700000</v>
       </c>
       <c r="AF11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH11">
         <v>244700000</v>
       </c>
       <c r="AI11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AJ11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AK11">
         <v>23</v>
       </c>
       <c r="AL11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AM11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AN11">
         <v>62000000</v>
       </c>
       <c r="AO11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AQ11">
         <v>304300000</v>
       </c>
       <c r="AR11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AS11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AT11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:46">
@@ -2106,100 +2118,100 @@
         <v>0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K12" t="s">
+        <v>73</v>
+      </c>
+      <c r="L12" t="s">
         <v>74</v>
       </c>
-      <c r="L12" t="s">
-        <v>75</v>
-      </c>
       <c r="M12" t="s">
+        <v>73</v>
+      </c>
+      <c r="N12" t="s">
         <v>74</v>
       </c>
-      <c r="N12" t="s">
-        <v>75</v>
-      </c>
       <c r="O12" t="s">
+        <v>76</v>
+      </c>
+      <c r="P12" t="s">
         <v>77</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>78</v>
       </c>
-      <c r="Q12" t="s">
-        <v>79</v>
-      </c>
       <c r="R12" t="s">
+        <v>79</v>
+      </c>
+      <c r="T12" t="s">
         <v>80</v>
       </c>
-      <c r="T12" t="s">
-        <v>81</v>
-      </c>
       <c r="U12" t="s">
+        <v>81</v>
+      </c>
+      <c r="V12" t="s">
+        <v>79</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12" t="s">
         <v>82</v>
       </c>
-      <c r="V12" t="s">
-        <v>80</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="s">
         <v>83</v>
       </c>
-      <c r="Y12" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="s">
         <v>84</v>
       </c>
-      <c r="AC12" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12" t="s">
+      <c r="AG12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI12" t="s">
         <v>85</v>
       </c>
-      <c r="AG12" t="s">
-        <v>80</v>
-      </c>
-      <c r="AI12" t="s">
+      <c r="AJ12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL12" t="s">
         <v>86</v>
       </c>
-      <c r="AJ12" t="s">
-        <v>80</v>
-      </c>
-      <c r="AL12" t="s">
+      <c r="AM12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO12" t="s">
         <v>87</v>
       </c>
-      <c r="AM12" t="s">
-        <v>80</v>
-      </c>
-      <c r="AO12" t="s">
+      <c r="AP12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR12" t="s">
         <v>88</v>
       </c>
-      <c r="AP12" t="s">
-        <v>80</v>
-      </c>
-      <c r="AR12" t="s">
-        <v>89</v>
-      </c>
       <c r="AS12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AT12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:46">
@@ -2213,7 +2225,7 @@
         <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
@@ -2222,115 +2234,115 @@
         <v>0</v>
       </c>
       <c r="I13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" t="s">
         <v>73</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>74</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
+        <v>73</v>
+      </c>
+      <c r="N13" t="s">
         <v>75</v>
       </c>
-      <c r="M13" t="s">
-        <v>74</v>
-      </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>76</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>77</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>78</v>
       </c>
-      <c r="Q13" t="s">
-        <v>79</v>
-      </c>
       <c r="R13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S13">
         <v>183660000</v>
       </c>
       <c r="T13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="V13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W13">
         <v>146528000</v>
       </c>
       <c r="X13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA13">
         <v>23000000</v>
       </c>
       <c r="AB13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AC13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AD13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE13">
         <v>330188000</v>
       </c>
       <c r="AF13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH13">
         <v>293188000</v>
       </c>
       <c r="AI13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AJ13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AK13">
         <v>30</v>
       </c>
       <c r="AL13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AM13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AN13">
         <v>37000000</v>
       </c>
       <c r="AO13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AQ13">
         <v>316188000</v>
       </c>
       <c r="AR13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AS13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AT13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Notion data/Lũy kế tháng SÓC TRĂNG.xlsx
+++ b/Notion data/Lũy kế tháng SÓC TRĂNG.xlsx
@@ -196,7 +196,7 @@
     <t>2024-06-26T06:02:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-09T19:28:00.000Z</t>
+    <t>2024-08-12T02:00:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/Th-ng-2-0cf2885da955464bba24838aa8df8185</t>
@@ -1520,7 +1520,7 @@
         <v>79</v>
       </c>
       <c r="S7">
-        <v>21500000</v>
+        <v>40280000</v>
       </c>
       <c r="T7" t="s">
         <v>80</v>
@@ -1532,7 +1532,7 @@
         <v>79</v>
       </c>
       <c r="W7">
-        <v>76000000</v>
+        <v>57220000</v>
       </c>
       <c r="X7" t="s">
         <v>82</v>

--- a/Notion data/Lũy kế tháng SÓC TRĂNG.xlsx
+++ b/Notion data/Lũy kế tháng SÓC TRĂNG.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="113">
   <si>
     <t>object</t>
   </si>
@@ -196,7 +196,7 @@
     <t>2024-06-26T06:02:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-12T02:00:00.000Z</t>
+    <t>2024-08-23T13:32:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/Th-ng-2-0cf2885da955464bba24838aa8df8185</t>
@@ -233,6 +233,42 @@
   </si>
   <si>
     <t>https://www.notion.so/Th-ng-7-ea84651fac4e493ba4b68a319814bdd3</t>
+  </si>
+  <si>
+    <t>https://salty-handsaw-797.notion.site/Th-ng-2-0cf2885da955464bba24838aa8df8185</t>
+  </si>
+  <si>
+    <t>https://salty-handsaw-797.notion.site/Th-ng-4-80c9ed8c8c3c4d3c852e054cb6dc4fe7</t>
+  </si>
+  <si>
+    <t>https://salty-handsaw-797.notion.site/Th-ng-12-9bc866afe8274d39b669794d8e2cf1e3</t>
+  </si>
+  <si>
+    <t>https://salty-handsaw-797.notion.site/Th-ng-1-a74916af140241e985356a7060c64281</t>
+  </si>
+  <si>
+    <t>https://salty-handsaw-797.notion.site/Th-ng-3-e1f2a3fded5e45bcb56892bdff672a81</t>
+  </si>
+  <si>
+    <t>https://salty-handsaw-797.notion.site/Th-ng-8-0ab127750b434975ab6d83b1b5fbd812</t>
+  </si>
+  <si>
+    <t>https://salty-handsaw-797.notion.site/Th-ng-5-161fabd6d46e42e4b3a8a147df59cc79</t>
+  </si>
+  <si>
+    <t>https://salty-handsaw-797.notion.site/Th-ng-9-7eafcf479d5348f0969ee7ad0581fe96</t>
+  </si>
+  <si>
+    <t>https://salty-handsaw-797.notion.site/Th-ng-11-8f9fa77a101b45b68bcb655eacbb35bd</t>
+  </si>
+  <si>
+    <t>https://salty-handsaw-797.notion.site/Th-ng-6-abb6b07e20ac459da4362c63fe9c5d01</t>
+  </si>
+  <si>
+    <t>https://salty-handsaw-797.notion.site/Th-ng-10-c9338d5e018146688350b37007d23b3a</t>
+  </si>
+  <si>
+    <t>https://salty-handsaw-797.notion.site/Th-ng-7-ea84651fac4e493ba4b68a319814bdd3</t>
   </si>
   <si>
     <t>user</t>
@@ -855,113 +891,116 @@
       <c r="I2" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="J2" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="K2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="L2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="M2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="N2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="O2" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="Q2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="R2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="S2">
         <v>23676000</v>
       </c>
       <c r="T2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="U2" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="V2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="W2">
-        <v>96219000</v>
+        <v>89719000</v>
       </c>
       <c r="X2" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="Y2" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="Z2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AA2">
-        <v>23498000</v>
+        <v>17498000</v>
       </c>
       <c r="AB2" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AC2" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AD2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AE2">
-        <v>119895000</v>
+        <v>113395000</v>
       </c>
       <c r="AF2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AG2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AH2">
-        <v>106895000</v>
+        <v>100395000</v>
       </c>
       <c r="AI2" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="AJ2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AK2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="AM2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AN2">
         <v>13000000</v>
       </c>
       <c r="AO2" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="AP2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AQ2">
-        <v>130393000</v>
+        <v>117893000</v>
       </c>
       <c r="AR2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AS2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AT2" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:46">
@@ -986,113 +1025,116 @@
       <c r="I3" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="J3" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="K3" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="L3" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="M3" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="N3" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="O3" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="P3" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="Q3" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="R3" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="S3">
         <v>328839000</v>
       </c>
       <c r="T3" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="U3" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="V3" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="W3">
-        <v>141611000</v>
+        <v>139611000</v>
       </c>
       <c r="X3" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="Y3" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="Z3" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AA3">
         <v>74400000</v>
       </c>
       <c r="AB3" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AC3" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AD3" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AE3">
-        <v>470450000</v>
+        <v>468450000</v>
       </c>
       <c r="AF3" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AG3" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AH3">
         <v>447050000</v>
       </c>
       <c r="AI3" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="AJ3" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AK3">
         <v>26</v>
       </c>
       <c r="AL3" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="AM3" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AN3">
-        <v>23400000</v>
+        <v>21400000</v>
       </c>
       <c r="AO3" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="AP3" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AQ3">
         <v>521450000</v>
       </c>
       <c r="AR3" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AS3" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AT3" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:46">
@@ -1117,98 +1159,101 @@
       <c r="I4" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="J4" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="K4" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="L4" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="M4" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="N4" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="O4" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="Q4" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="R4" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="T4" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="U4" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="V4" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="Y4" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="Z4" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AC4" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AD4" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AG4" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI4" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="AJ4" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AL4" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="AM4" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AO4" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="AP4" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AR4" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AS4" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AT4" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:46">
@@ -1233,113 +1278,116 @@
       <c r="I5" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="J5" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="M5" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="O5" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="Q5" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="R5" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="U5" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="V5" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="Y5" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="Z5" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AC5" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AD5" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AG5" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AH5">
         <v>0</v>
       </c>
       <c r="AI5" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="AJ5" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AK5">
         <v>1</v>
       </c>
       <c r="AL5" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="AM5" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AN5">
         <v>0</v>
       </c>
       <c r="AO5" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="AP5" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AQ5">
         <v>0</v>
       </c>
       <c r="AR5" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AS5" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AT5" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:46">
@@ -1364,113 +1412,116 @@
       <c r="I6" s="2" t="s">
         <v>65</v>
       </c>
+      <c r="J6" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="K6" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="M6" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="N6" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="O6" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="P6" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="Q6" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="R6" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="S6">
         <v>174270000</v>
       </c>
       <c r="T6" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="U6" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="V6" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="W6">
         <v>227830000</v>
       </c>
       <c r="X6" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="Y6" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="Z6" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AA6">
         <v>28800000</v>
       </c>
       <c r="AB6" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AC6" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AD6" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AE6">
         <v>402100000</v>
       </c>
       <c r="AF6" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AG6" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AH6">
         <v>382100000</v>
       </c>
       <c r="AI6" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="AJ6" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AK6">
         <v>39</v>
       </c>
       <c r="AL6" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="AM6" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AN6">
         <v>20000000</v>
       </c>
       <c r="AO6" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="AP6" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AQ6">
         <v>410900000</v>
       </c>
       <c r="AR6" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AS6" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AT6" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:46">
@@ -1495,113 +1546,116 @@
       <c r="I7" s="2" t="s">
         <v>66</v>
       </c>
+      <c r="J7" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="K7" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="L7" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="M7" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="N7" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="O7" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="Q7" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="R7" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="S7">
-        <v>40280000</v>
+        <v>56195000</v>
       </c>
       <c r="T7" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="U7" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="V7" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="W7">
-        <v>57220000</v>
+        <v>88005000</v>
       </c>
       <c r="X7" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="Y7" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="Z7" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AA7">
-        <v>28000000</v>
+        <v>32000000</v>
       </c>
       <c r="AB7" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AC7" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AD7" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AE7">
-        <v>97500000</v>
+        <v>144200000</v>
       </c>
       <c r="AF7" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AG7" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AH7">
-        <v>85000000</v>
+        <v>127200000</v>
       </c>
       <c r="AI7" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="AJ7" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AK7">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AL7" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="AM7" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AN7">
-        <v>12500000</v>
+        <v>17000000</v>
       </c>
       <c r="AO7" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="AP7" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AQ7">
-        <v>113000000</v>
+        <v>159200000</v>
       </c>
       <c r="AR7" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AS7" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AT7" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:46">
@@ -1626,113 +1680,116 @@
       <c r="I8" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="J8" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="K8" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="L8" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="M8" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="N8" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="O8" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="Q8" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="R8" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="S8">
         <v>21144000</v>
       </c>
       <c r="T8" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="U8" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="V8" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="W8">
-        <v>112842000</v>
+        <v>111842000</v>
       </c>
       <c r="X8" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="Y8" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="Z8" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AA8">
         <v>44286000</v>
       </c>
       <c r="AB8" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AC8" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AD8" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AE8">
-        <v>133986000</v>
+        <v>132986000</v>
       </c>
       <c r="AF8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AG8" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AH8">
         <v>114800000</v>
       </c>
       <c r="AI8" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="AJ8" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AK8">
         <v>23</v>
       </c>
       <c r="AL8" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="AM8" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AN8">
-        <v>19186000</v>
+        <v>18186000</v>
       </c>
       <c r="AO8" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="AP8" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AQ8">
         <v>159086000</v>
       </c>
       <c r="AR8" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AS8" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AT8" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:46">
@@ -1757,98 +1814,101 @@
       <c r="I9" s="2" t="s">
         <v>68</v>
       </c>
+      <c r="J9" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="K9" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="L9" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="M9" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="N9" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="O9" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="Q9" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="R9" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="T9" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="U9" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="V9" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="Y9" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="Z9" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AC9" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AD9" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AG9" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI9" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="AJ9" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AL9" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="AM9" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AO9" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="AP9" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AR9" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AS9" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AT9" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:46">
@@ -1873,98 +1933,101 @@
       <c r="I10" s="2" t="s">
         <v>69</v>
       </c>
+      <c r="J10" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="K10" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="L10" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="M10" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="N10" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="O10" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="Q10" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="R10" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="T10" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="U10" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="V10" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="Y10" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="Z10" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
       <c r="AB10" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AC10" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AD10" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AE10">
         <v>0</v>
       </c>
       <c r="AF10" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AG10" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI10" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="AJ10" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AL10" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="AM10" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AO10" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="AP10" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AR10" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AS10" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AT10" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:46">
@@ -1989,113 +2052,116 @@
       <c r="I11" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="J11" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="K11" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="L11" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="M11" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="N11" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="O11" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="Q11" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="R11" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="S11">
         <v>106196000</v>
       </c>
       <c r="T11" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="U11" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="V11" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="W11">
-        <v>200504000</v>
+        <v>199504000</v>
       </c>
       <c r="X11" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="Y11" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="Z11" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AA11">
         <v>59600000</v>
       </c>
       <c r="AB11" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AC11" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AD11" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AE11">
-        <v>306700000</v>
+        <v>305700000</v>
       </c>
       <c r="AF11" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AG11" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AH11">
         <v>244700000</v>
       </c>
       <c r="AI11" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="AJ11" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AK11">
         <v>23</v>
       </c>
       <c r="AL11" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="AM11" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AN11">
-        <v>62000000</v>
+        <v>61000000</v>
       </c>
       <c r="AO11" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="AP11" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AQ11">
         <v>304300000</v>
       </c>
       <c r="AR11" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AS11" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AT11" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:46">
@@ -2120,98 +2186,101 @@
       <c r="I12" s="2" t="s">
         <v>71</v>
       </c>
+      <c r="J12" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="K12" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="L12" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="M12" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="N12" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="O12" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="Q12" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="R12" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="T12" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="U12" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="V12" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="Y12" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="Z12" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AA12">
         <v>0</v>
       </c>
       <c r="AB12" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AC12" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AD12" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AE12">
         <v>0</v>
       </c>
       <c r="AF12" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AG12" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI12" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="AJ12" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AL12" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="AM12" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AO12" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="AP12" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AR12" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AS12" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AT12" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:46">
@@ -2236,129 +2305,144 @@
       <c r="I13" s="2" t="s">
         <v>72</v>
       </c>
+      <c r="J13" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="K13" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="L13" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="M13" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="N13" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="O13" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="Q13" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="R13" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="S13">
         <v>183660000</v>
       </c>
       <c r="T13" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="U13" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="V13" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="W13">
-        <v>146528000</v>
+        <v>144528000</v>
       </c>
       <c r="X13" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="Y13" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="Z13" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AA13">
         <v>23000000</v>
       </c>
       <c r="AB13" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AC13" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AD13" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AE13">
-        <v>330188000</v>
+        <v>328188000</v>
       </c>
       <c r="AF13" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AG13" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AH13">
         <v>293188000</v>
       </c>
       <c r="AI13" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="AJ13" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AK13">
         <v>30</v>
       </c>
       <c r="AL13" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="AM13" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AN13">
-        <v>37000000</v>
+        <v>35000000</v>
       </c>
       <c r="AO13" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="AP13" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AQ13">
         <v>316188000</v>
       </c>
       <c r="AR13" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AS13" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AT13" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1"/>
-    <hyperlink ref="I3" r:id="rId2"/>
-    <hyperlink ref="I4" r:id="rId3"/>
-    <hyperlink ref="I5" r:id="rId4"/>
-    <hyperlink ref="I6" r:id="rId5"/>
-    <hyperlink ref="I7" r:id="rId6"/>
-    <hyperlink ref="I8" r:id="rId7"/>
-    <hyperlink ref="I9" r:id="rId8"/>
-    <hyperlink ref="I10" r:id="rId9"/>
-    <hyperlink ref="I11" r:id="rId10"/>
-    <hyperlink ref="I12" r:id="rId11"/>
-    <hyperlink ref="I13" r:id="rId12"/>
+    <hyperlink ref="J2" r:id="rId2"/>
+    <hyperlink ref="I3" r:id="rId3"/>
+    <hyperlink ref="J3" r:id="rId4"/>
+    <hyperlink ref="I4" r:id="rId5"/>
+    <hyperlink ref="J4" r:id="rId6"/>
+    <hyperlink ref="I5" r:id="rId7"/>
+    <hyperlink ref="J5" r:id="rId8"/>
+    <hyperlink ref="I6" r:id="rId9"/>
+    <hyperlink ref="J6" r:id="rId10"/>
+    <hyperlink ref="I7" r:id="rId11"/>
+    <hyperlink ref="J7" r:id="rId12"/>
+    <hyperlink ref="I8" r:id="rId13"/>
+    <hyperlink ref="J8" r:id="rId14"/>
+    <hyperlink ref="I9" r:id="rId15"/>
+    <hyperlink ref="J9" r:id="rId16"/>
+    <hyperlink ref="I10" r:id="rId17"/>
+    <hyperlink ref="J10" r:id="rId18"/>
+    <hyperlink ref="I11" r:id="rId19"/>
+    <hyperlink ref="J11" r:id="rId20"/>
+    <hyperlink ref="I12" r:id="rId21"/>
+    <hyperlink ref="J12" r:id="rId22"/>
+    <hyperlink ref="I13" r:id="rId23"/>
+    <hyperlink ref="J13" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Notion data/Lũy kế tháng SÓC TRĂNG.xlsx
+++ b/Notion data/Lũy kế tháng SÓC TRĂNG.xlsx
@@ -196,7 +196,7 @@
     <t>2024-06-26T06:02:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-23T13:32:00.000Z</t>
+    <t>2024-08-24T20:33:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/Th-ng-2-0cf2885da955464bba24838aa8df8185</t>
@@ -1574,7 +1574,7 @@
         <v>91</v>
       </c>
       <c r="S7">
-        <v>56195000</v>
+        <v>69005000</v>
       </c>
       <c r="T7" t="s">
         <v>92</v>
@@ -1586,7 +1586,7 @@
         <v>91</v>
       </c>
       <c r="W7">
-        <v>88005000</v>
+        <v>105195000</v>
       </c>
       <c r="X7" t="s">
         <v>94</v>
@@ -1610,7 +1610,7 @@
         <v>91</v>
       </c>
       <c r="AE7">
-        <v>144200000</v>
+        <v>174200000</v>
       </c>
       <c r="AF7" t="s">
         <v>96</v>
@@ -1619,7 +1619,7 @@
         <v>91</v>
       </c>
       <c r="AH7">
-        <v>127200000</v>
+        <v>157200000</v>
       </c>
       <c r="AI7" t="s">
         <v>97</v>
@@ -1628,7 +1628,7 @@
         <v>91</v>
       </c>
       <c r="AK7">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AL7" t="s">
         <v>98</v>
@@ -1646,7 +1646,7 @@
         <v>91</v>
       </c>
       <c r="AQ7">
-        <v>159200000</v>
+        <v>189200000</v>
       </c>
       <c r="AR7" t="s">
         <v>100</v>

--- a/Notion data/Lũy kế tháng SÓC TRĂNG.xlsx
+++ b/Notion data/Lũy kế tháng SÓC TRĂNG.xlsx
@@ -196,7 +196,7 @@
     <t>2024-06-26T06:02:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-24T20:33:00.000Z</t>
+    <t>2024-08-26T17:26:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/Th-ng-2-0cf2885da955464bba24838aa8df8185</t>

--- a/Notion data/Lũy kế tháng SÓC TRĂNG.xlsx
+++ b/Notion data/Lũy kế tháng SÓC TRĂNG.xlsx
@@ -196,7 +196,7 @@
     <t>2024-06-26T06:02:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-26T17:26:00.000Z</t>
+    <t>2024-08-27T12:18:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/Th-ng-2-0cf2885da955464bba24838aa8df8185</t>

--- a/Notion data/Lũy kế tháng SÓC TRĂNG.xlsx
+++ b/Notion data/Lũy kế tháng SÓC TRĂNG.xlsx
@@ -196,7 +196,7 @@
     <t>2024-06-26T06:02:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-27T12:18:00.000Z</t>
+    <t>2024-08-28T15:04:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/Th-ng-2-0cf2885da955464bba24838aa8df8185</t>
@@ -1574,7 +1574,7 @@
         <v>91</v>
       </c>
       <c r="S7">
-        <v>69005000</v>
+        <v>67695000</v>
       </c>
       <c r="T7" t="s">
         <v>92</v>
@@ -1586,7 +1586,7 @@
         <v>91</v>
       </c>
       <c r="W7">
-        <v>105195000</v>
+        <v>121505000</v>
       </c>
       <c r="X7" t="s">
         <v>94</v>
@@ -1610,7 +1610,7 @@
         <v>91</v>
       </c>
       <c r="AE7">
-        <v>174200000</v>
+        <v>189200000</v>
       </c>
       <c r="AF7" t="s">
         <v>96</v>
@@ -1619,7 +1619,7 @@
         <v>91</v>
       </c>
       <c r="AH7">
-        <v>157200000</v>
+        <v>172200000</v>
       </c>
       <c r="AI7" t="s">
         <v>97</v>
@@ -1628,7 +1628,7 @@
         <v>91</v>
       </c>
       <c r="AK7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL7" t="s">
         <v>98</v>
@@ -1646,7 +1646,7 @@
         <v>91</v>
       </c>
       <c r="AQ7">
-        <v>189200000</v>
+        <v>204200000</v>
       </c>
       <c r="AR7" t="s">
         <v>100</v>

--- a/Notion data/Lũy kế tháng SÓC TRĂNG.xlsx
+++ b/Notion data/Lũy kế tháng SÓC TRĂNG.xlsx
@@ -196,7 +196,7 @@
     <t>2024-06-26T06:02:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-28T15:04:00.000Z</t>
+    <t>2024-08-30T20:17:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/Th-ng-2-0cf2885da955464bba24838aa8df8185</t>
@@ -1574,7 +1574,7 @@
         <v>91</v>
       </c>
       <c r="S7">
-        <v>67695000</v>
+        <v>78278000</v>
       </c>
       <c r="T7" t="s">
         <v>92</v>
@@ -1586,7 +1586,7 @@
         <v>91</v>
       </c>
       <c r="W7">
-        <v>121505000</v>
+        <v>110922000</v>
       </c>
       <c r="X7" t="s">
         <v>94</v>

--- a/Notion data/Lũy kế tháng SÓC TRĂNG.xlsx
+++ b/Notion data/Lũy kế tháng SÓC TRĂNG.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="114">
   <si>
     <t>object</t>
   </si>
@@ -196,7 +196,10 @@
     <t>2024-06-26T06:02:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-30T20:17:00.000Z</t>
+    <t>2024-08-31T05:43:00.000Z</t>
+  </si>
+  <si>
+    <t>2024-08-31T05:40:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/Th-ng-2-0cf2885da955464bba24838aa8df8185</t>
@@ -889,118 +892,118 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M2" t="s">
         <v>86</v>
       </c>
-      <c r="M2" t="s">
-        <v>85</v>
-      </c>
       <c r="N2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S2">
         <v>23676000</v>
       </c>
       <c r="T2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="U2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="V2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="W2">
         <v>89719000</v>
       </c>
       <c r="X2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Y2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Z2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AA2">
         <v>17498000</v>
       </c>
       <c r="AB2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AD2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AE2">
         <v>113395000</v>
       </c>
       <c r="AF2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH2">
         <v>100395000</v>
       </c>
       <c r="AI2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AK2">
         <v>15</v>
       </c>
       <c r="AL2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AM2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN2">
         <v>13000000</v>
       </c>
       <c r="AO2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AP2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AQ2">
         <v>117893000</v>
       </c>
       <c r="AR2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AS2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AT2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:46">
@@ -1023,118 +1026,118 @@
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L3" t="s">
+        <v>87</v>
+      </c>
+      <c r="M3" t="s">
         <v>86</v>
       </c>
-      <c r="M3" t="s">
-        <v>85</v>
-      </c>
       <c r="N3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S3">
         <v>328839000</v>
       </c>
       <c r="T3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="U3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="V3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="W3">
         <v>139611000</v>
       </c>
       <c r="X3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Y3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Z3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AA3">
         <v>74400000</v>
       </c>
       <c r="AB3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AD3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AE3">
         <v>468450000</v>
       </c>
       <c r="AF3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH3">
         <v>447050000</v>
       </c>
       <c r="AI3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AK3">
         <v>26</v>
       </c>
       <c r="AL3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AM3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN3">
         <v>21400000</v>
       </c>
       <c r="AO3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AP3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AQ3">
         <v>521450000</v>
       </c>
       <c r="AR3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AS3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AT3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:46">
@@ -1157,103 +1160,103 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L4" t="s">
+        <v>87</v>
+      </c>
+      <c r="M4" t="s">
         <v>86</v>
       </c>
-      <c r="M4" t="s">
-        <v>85</v>
-      </c>
       <c r="N4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="T4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="U4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="V4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Y4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Z4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AD4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AL4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AM4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AO4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AP4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AR4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AS4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AT4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:46">
@@ -1276,118 +1279,118 @@
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L5" t="s">
+        <v>87</v>
+      </c>
+      <c r="M5" t="s">
         <v>86</v>
       </c>
-      <c r="M5" t="s">
-        <v>85</v>
-      </c>
       <c r="N5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="U5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="V5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Y5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Z5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AD5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH5">
         <v>0</v>
       </c>
       <c r="AI5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AK5">
         <v>1</v>
       </c>
       <c r="AL5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AM5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN5">
         <v>0</v>
       </c>
       <c r="AO5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AP5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AQ5">
         <v>0</v>
       </c>
       <c r="AR5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AS5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AT5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:46">
@@ -1410,118 +1413,118 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" t="s">
         <v>86</v>
       </c>
-      <c r="M6" t="s">
-        <v>85</v>
-      </c>
       <c r="N6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S6">
         <v>174270000</v>
       </c>
       <c r="T6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="U6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="V6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="W6">
         <v>227830000</v>
       </c>
       <c r="X6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Y6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Z6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AA6">
         <v>28800000</v>
       </c>
       <c r="AB6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AD6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AE6">
         <v>402100000</v>
       </c>
       <c r="AF6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH6">
         <v>382100000</v>
       </c>
       <c r="AI6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AK6">
         <v>39</v>
       </c>
       <c r="AL6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AM6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN6">
         <v>20000000</v>
       </c>
       <c r="AO6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AP6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AQ6">
         <v>410900000</v>
       </c>
       <c r="AR6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AS6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AT6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:46">
@@ -1535,7 +1538,7 @@
         <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
@@ -1544,118 +1547,118 @@
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="s">
         <v>86</v>
       </c>
-      <c r="M7" t="s">
-        <v>85</v>
-      </c>
       <c r="N7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S7">
         <v>78278000</v>
       </c>
       <c r="T7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="U7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="V7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="W7">
         <v>110922000</v>
       </c>
       <c r="X7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Y7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Z7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AA7">
         <v>32000000</v>
       </c>
       <c r="AB7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AD7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AE7">
         <v>189200000</v>
       </c>
       <c r="AF7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH7">
         <v>172200000</v>
       </c>
       <c r="AI7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AK7">
         <v>22</v>
       </c>
       <c r="AL7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AM7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN7">
         <v>17000000</v>
       </c>
       <c r="AO7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AP7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AQ7">
         <v>204200000</v>
       </c>
       <c r="AR7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AS7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AT7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:46">
@@ -1678,118 +1681,118 @@
         <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L8" t="s">
+        <v>87</v>
+      </c>
+      <c r="M8" t="s">
         <v>86</v>
       </c>
-      <c r="M8" t="s">
-        <v>85</v>
-      </c>
       <c r="N8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S8">
         <v>21144000</v>
       </c>
       <c r="T8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="U8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="V8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="W8">
         <v>111842000</v>
       </c>
       <c r="X8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Y8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Z8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AA8">
         <v>44286000</v>
       </c>
       <c r="AB8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AD8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AE8">
         <v>132986000</v>
       </c>
       <c r="AF8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH8">
         <v>114800000</v>
       </c>
       <c r="AI8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AK8">
         <v>23</v>
       </c>
       <c r="AL8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AM8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN8">
         <v>18186000</v>
       </c>
       <c r="AO8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AP8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AQ8">
         <v>159086000</v>
       </c>
       <c r="AR8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AS8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AT8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:46">
@@ -1812,103 +1815,103 @@
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L9" t="s">
+        <v>87</v>
+      </c>
+      <c r="M9" t="s">
         <v>86</v>
       </c>
-      <c r="M9" t="s">
-        <v>85</v>
-      </c>
       <c r="N9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="T9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="U9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="V9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Y9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Z9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AD9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AL9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AM9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AO9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AP9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AR9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AS9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AT9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:46">
@@ -1931,103 +1934,103 @@
         <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L10" t="s">
+        <v>87</v>
+      </c>
+      <c r="M10" t="s">
         <v>86</v>
       </c>
-      <c r="M10" t="s">
-        <v>85</v>
-      </c>
       <c r="N10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="T10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="U10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="V10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Y10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Z10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
       <c r="AB10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AD10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AE10">
         <v>0</v>
       </c>
       <c r="AF10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AL10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AM10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AO10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AP10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AR10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AS10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AT10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:46">
@@ -2050,118 +2053,118 @@
         <v>0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L11" t="s">
+        <v>87</v>
+      </c>
+      <c r="M11" t="s">
         <v>86</v>
       </c>
-      <c r="M11" t="s">
-        <v>85</v>
-      </c>
       <c r="N11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S11">
         <v>106196000</v>
       </c>
       <c r="T11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="U11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="V11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="W11">
         <v>199504000</v>
       </c>
       <c r="X11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Y11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Z11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AA11">
         <v>59600000</v>
       </c>
       <c r="AB11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AD11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AE11">
         <v>305700000</v>
       </c>
       <c r="AF11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH11">
         <v>244700000</v>
       </c>
       <c r="AI11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AK11">
         <v>23</v>
       </c>
       <c r="AL11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AM11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN11">
         <v>61000000</v>
       </c>
       <c r="AO11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AP11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AQ11">
         <v>304300000</v>
       </c>
       <c r="AR11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AS11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AT11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:46">
@@ -2184,103 +2187,103 @@
         <v>0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L12" t="s">
+        <v>87</v>
+      </c>
+      <c r="M12" t="s">
         <v>86</v>
       </c>
-      <c r="M12" t="s">
-        <v>85</v>
-      </c>
       <c r="N12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="T12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="U12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="V12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Y12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Z12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AA12">
         <v>0</v>
       </c>
       <c r="AB12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AD12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AE12">
         <v>0</v>
       </c>
       <c r="AF12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AL12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AM12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AO12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AP12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AR12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AS12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AT12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:46">
@@ -2303,118 +2306,118 @@
         <v>0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L13" t="s">
+        <v>87</v>
+      </c>
+      <c r="M13" t="s">
         <v>86</v>
       </c>
-      <c r="M13" t="s">
-        <v>85</v>
-      </c>
       <c r="N13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S13">
         <v>183660000</v>
       </c>
       <c r="T13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="U13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="V13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="W13">
         <v>144528000</v>
       </c>
       <c r="X13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Y13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Z13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AA13">
         <v>23000000</v>
       </c>
       <c r="AB13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AD13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AE13">
         <v>328188000</v>
       </c>
       <c r="AF13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH13">
         <v>293188000</v>
       </c>
       <c r="AI13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AK13">
         <v>30</v>
       </c>
       <c r="AL13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AM13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN13">
         <v>35000000</v>
       </c>
       <c r="AO13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AP13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AQ13">
         <v>316188000</v>
       </c>
       <c r="AR13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AS13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AT13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/Notion data/Lũy kế tháng SÓC TRĂNG.xlsx
+++ b/Notion data/Lũy kế tháng SÓC TRĂNG.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="113">
   <si>
     <t>object</t>
   </si>
@@ -196,10 +196,7 @@
     <t>2024-06-26T06:02:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-31T05:43:00.000Z</t>
-  </si>
-  <si>
-    <t>2024-08-31T05:40:00.000Z</t>
+    <t>2024-08-31T15:46:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/Th-ng-2-0cf2885da955464bba24838aa8df8185</t>
@@ -892,118 +889,118 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L2" t="s">
         <v>86</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N2" t="s">
         <v>87</v>
       </c>
-      <c r="M2" t="s">
-        <v>86</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>88</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>89</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>90</v>
       </c>
-      <c r="Q2" t="s">
-        <v>91</v>
-      </c>
       <c r="R2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S2">
         <v>23676000</v>
       </c>
       <c r="T2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W2">
         <v>89719000</v>
       </c>
       <c r="X2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Y2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA2">
         <v>17498000</v>
       </c>
       <c r="AB2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AC2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AD2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE2">
         <v>113395000</v>
       </c>
       <c r="AF2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AG2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH2">
         <v>100395000</v>
       </c>
       <c r="AI2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK2">
         <v>15</v>
       </c>
       <c r="AL2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AM2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AN2">
         <v>13000000</v>
       </c>
       <c r="AO2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AP2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AQ2">
         <v>117893000</v>
       </c>
       <c r="AR2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AT2" t="s">
         <v>101</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:46">
@@ -1026,118 +1023,118 @@
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L3" t="s">
         <v>86</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
+        <v>85</v>
+      </c>
+      <c r="N3" t="s">
         <v>87</v>
       </c>
-      <c r="M3" t="s">
-        <v>86</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>88</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>89</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>90</v>
       </c>
-      <c r="Q3" t="s">
-        <v>91</v>
-      </c>
       <c r="R3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S3">
         <v>328839000</v>
       </c>
       <c r="T3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W3">
         <v>139611000</v>
       </c>
       <c r="X3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Y3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA3">
         <v>74400000</v>
       </c>
       <c r="AB3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AC3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AD3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE3">
         <v>468450000</v>
       </c>
       <c r="AF3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AG3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH3">
         <v>447050000</v>
       </c>
       <c r="AI3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK3">
         <v>26</v>
       </c>
       <c r="AL3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AM3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AN3">
         <v>21400000</v>
       </c>
       <c r="AO3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AP3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AQ3">
         <v>521450000</v>
       </c>
       <c r="AR3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AS3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AT3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:46">
@@ -1160,103 +1157,103 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K4" t="s">
+        <v>85</v>
+      </c>
+      <c r="L4" t="s">
         <v>86</v>
       </c>
-      <c r="L4" t="s">
-        <v>87</v>
-      </c>
       <c r="M4" t="s">
+        <v>85</v>
+      </c>
+      <c r="N4" t="s">
         <v>86</v>
       </c>
-      <c r="N4" t="s">
-        <v>87</v>
-      </c>
       <c r="O4" t="s">
+        <v>88</v>
+      </c>
+      <c r="P4" t="s">
         <v>89</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>90</v>
       </c>
-      <c r="Q4" t="s">
-        <v>91</v>
-      </c>
       <c r="R4" t="s">
+        <v>91</v>
+      </c>
+      <c r="T4" t="s">
         <v>92</v>
       </c>
-      <c r="T4" t="s">
-        <v>93</v>
-      </c>
       <c r="U4" t="s">
+        <v>93</v>
+      </c>
+      <c r="V4" t="s">
+        <v>91</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4" t="s">
         <v>94</v>
       </c>
-      <c r="V4" t="s">
-        <v>92</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="s">
         <v>95</v>
       </c>
-      <c r="Y4" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="s">
         <v>96</v>
       </c>
-      <c r="AC4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI4" t="s">
         <v>97</v>
       </c>
-      <c r="AG4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI4" t="s">
+      <c r="AJ4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL4" t="s">
         <v>98</v>
       </c>
-      <c r="AJ4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL4" t="s">
+      <c r="AM4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO4" t="s">
         <v>99</v>
       </c>
-      <c r="AM4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO4" t="s">
+      <c r="AP4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR4" t="s">
         <v>100</v>
       </c>
-      <c r="AP4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>101</v>
-      </c>
       <c r="AS4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AT4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:46">
@@ -1279,118 +1276,118 @@
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
+        <v>85</v>
+      </c>
+      <c r="L5" t="s">
         <v>86</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
+        <v>85</v>
+      </c>
+      <c r="N5" t="s">
         <v>87</v>
       </c>
-      <c r="M5" t="s">
-        <v>86</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>88</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>89</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>90</v>
       </c>
-      <c r="Q5" t="s">
-        <v>91</v>
-      </c>
       <c r="R5" t="s">
+        <v>91</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5" t="s">
         <v>92</v>
       </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5" t="s">
-        <v>93</v>
-      </c>
       <c r="U5" t="s">
+        <v>93</v>
+      </c>
+      <c r="V5" t="s">
+        <v>91</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5" t="s">
         <v>94</v>
       </c>
-      <c r="V5" t="s">
-        <v>92</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="s">
         <v>95</v>
       </c>
-      <c r="Y5" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="s">
         <v>96</v>
       </c>
-      <c r="AC5" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5" t="s">
+      <c r="AG5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5" t="s">
         <v>97</v>
       </c>
-      <c r="AG5" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>98</v>
-      </c>
       <c r="AJ5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK5">
         <v>1</v>
       </c>
       <c r="AL5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="s">
         <v>99</v>
       </c>
-      <c r="AM5" t="s">
-        <v>92</v>
-      </c>
-      <c r="AN5">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="s">
+      <c r="AP5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="s">
         <v>100</v>
       </c>
-      <c r="AP5" t="s">
-        <v>92</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>101</v>
-      </c>
       <c r="AS5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AT5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:46">
@@ -1413,118 +1410,118 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
         <v>86</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
+        <v>85</v>
+      </c>
+      <c r="N6" t="s">
         <v>87</v>
       </c>
-      <c r="M6" t="s">
-        <v>86</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>88</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>89</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>90</v>
       </c>
-      <c r="Q6" t="s">
-        <v>91</v>
-      </c>
       <c r="R6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S6">
         <v>174270000</v>
       </c>
       <c r="T6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W6">
         <v>227830000</v>
       </c>
       <c r="X6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Y6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA6">
         <v>28800000</v>
       </c>
       <c r="AB6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AC6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AD6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE6">
         <v>402100000</v>
       </c>
       <c r="AF6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AG6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH6">
         <v>382100000</v>
       </c>
       <c r="AI6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK6">
         <v>39</v>
       </c>
       <c r="AL6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AM6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AN6">
         <v>20000000</v>
       </c>
       <c r="AO6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AP6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AQ6">
         <v>410900000</v>
       </c>
       <c r="AR6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AS6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AT6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:46">
@@ -1538,7 +1535,7 @@
         <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
@@ -1547,118 +1544,118 @@
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s">
         <v>86</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
+        <v>85</v>
+      </c>
+      <c r="N7" t="s">
         <v>87</v>
       </c>
-      <c r="M7" t="s">
-        <v>86</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>88</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>89</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>90</v>
       </c>
-      <c r="Q7" t="s">
-        <v>91</v>
-      </c>
       <c r="R7" t="s">
+        <v>91</v>
+      </c>
+      <c r="S7">
+        <v>80308000</v>
+      </c>
+      <c r="T7" t="s">
         <v>92</v>
       </c>
-      <c r="S7">
-        <v>78278000</v>
-      </c>
-      <c r="T7" t="s">
-        <v>93</v>
-      </c>
       <c r="U7" t="s">
+        <v>93</v>
+      </c>
+      <c r="V7" t="s">
+        <v>91</v>
+      </c>
+      <c r="W7">
+        <v>110192000</v>
+      </c>
+      <c r="X7" t="s">
         <v>94</v>
       </c>
-      <c r="V7" t="s">
-        <v>92</v>
-      </c>
-      <c r="W7">
-        <v>110922000</v>
-      </c>
-      <c r="X7" t="s">
-        <v>95</v>
-      </c>
       <c r="Y7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA7">
         <v>32000000</v>
       </c>
       <c r="AB7" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE7">
+        <v>190500000</v>
+      </c>
+      <c r="AF7" t="s">
         <v>96</v>
       </c>
-      <c r="AC7" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE7">
-        <v>189200000</v>
-      </c>
-      <c r="AF7" t="s">
+      <c r="AG7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH7">
+        <v>173500000</v>
+      </c>
+      <c r="AI7" t="s">
         <v>97</v>
       </c>
-      <c r="AG7" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH7">
-        <v>172200000</v>
-      </c>
-      <c r="AI7" t="s">
+      <c r="AJ7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK7">
+        <v>23</v>
+      </c>
+      <c r="AL7" t="s">
         <v>98</v>
       </c>
-      <c r="AJ7" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK7">
-        <v>22</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>99</v>
-      </c>
       <c r="AM7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AN7">
         <v>17000000</v>
       </c>
       <c r="AO7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ7">
+        <v>205500000</v>
+      </c>
+      <c r="AR7" t="s">
         <v>100</v>
       </c>
-      <c r="AP7" t="s">
-        <v>92</v>
-      </c>
-      <c r="AQ7">
-        <v>204200000</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>101</v>
-      </c>
       <c r="AS7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AT7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:46">
@@ -1681,118 +1678,118 @@
         <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L8" t="s">
         <v>86</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
+        <v>85</v>
+      </c>
+      <c r="N8" t="s">
         <v>87</v>
       </c>
-      <c r="M8" t="s">
-        <v>86</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>88</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>89</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>90</v>
       </c>
-      <c r="Q8" t="s">
-        <v>91</v>
-      </c>
       <c r="R8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S8">
         <v>21144000</v>
       </c>
       <c r="T8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W8">
         <v>111842000</v>
       </c>
       <c r="X8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Y8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA8">
         <v>44286000</v>
       </c>
       <c r="AB8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AC8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AD8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE8">
         <v>132986000</v>
       </c>
       <c r="AF8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AG8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH8">
         <v>114800000</v>
       </c>
       <c r="AI8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK8">
         <v>23</v>
       </c>
       <c r="AL8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AM8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AN8">
         <v>18186000</v>
       </c>
       <c r="AO8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AP8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AQ8">
         <v>159086000</v>
       </c>
       <c r="AR8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AS8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AT8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:46">
@@ -1815,103 +1812,103 @@
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K9" t="s">
+        <v>85</v>
+      </c>
+      <c r="L9" t="s">
         <v>86</v>
       </c>
-      <c r="L9" t="s">
-        <v>87</v>
-      </c>
       <c r="M9" t="s">
+        <v>85</v>
+      </c>
+      <c r="N9" t="s">
         <v>86</v>
       </c>
-      <c r="N9" t="s">
-        <v>87</v>
-      </c>
       <c r="O9" t="s">
+        <v>88</v>
+      </c>
+      <c r="P9" t="s">
         <v>89</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>90</v>
       </c>
-      <c r="Q9" t="s">
-        <v>91</v>
-      </c>
       <c r="R9" t="s">
+        <v>91</v>
+      </c>
+      <c r="T9" t="s">
         <v>92</v>
       </c>
-      <c r="T9" t="s">
-        <v>93</v>
-      </c>
       <c r="U9" t="s">
+        <v>93</v>
+      </c>
+      <c r="V9" t="s">
+        <v>91</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9" t="s">
         <v>94</v>
       </c>
-      <c r="V9" t="s">
-        <v>92</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="s">
         <v>95</v>
       </c>
-      <c r="Y9" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="s">
         <v>96</v>
       </c>
-      <c r="AC9" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9" t="s">
+      <c r="AG9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI9" t="s">
         <v>97</v>
       </c>
-      <c r="AG9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI9" t="s">
+      <c r="AJ9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL9" t="s">
         <v>98</v>
       </c>
-      <c r="AJ9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL9" t="s">
+      <c r="AM9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO9" t="s">
         <v>99</v>
       </c>
-      <c r="AM9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO9" t="s">
+      <c r="AP9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR9" t="s">
         <v>100</v>
       </c>
-      <c r="AP9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AR9" t="s">
-        <v>101</v>
-      </c>
       <c r="AS9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AT9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:46">
@@ -1934,103 +1931,103 @@
         <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K10" t="s">
+        <v>85</v>
+      </c>
+      <c r="L10" t="s">
         <v>86</v>
       </c>
-      <c r="L10" t="s">
-        <v>87</v>
-      </c>
       <c r="M10" t="s">
+        <v>85</v>
+      </c>
+      <c r="N10" t="s">
         <v>86</v>
       </c>
-      <c r="N10" t="s">
-        <v>87</v>
-      </c>
       <c r="O10" t="s">
+        <v>88</v>
+      </c>
+      <c r="P10" t="s">
         <v>89</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>90</v>
       </c>
-      <c r="Q10" t="s">
-        <v>91</v>
-      </c>
       <c r="R10" t="s">
+        <v>91</v>
+      </c>
+      <c r="T10" t="s">
         <v>92</v>
       </c>
-      <c r="T10" t="s">
-        <v>93</v>
-      </c>
       <c r="U10" t="s">
+        <v>93</v>
+      </c>
+      <c r="V10" t="s">
+        <v>91</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10" t="s">
         <v>94</v>
       </c>
-      <c r="V10" t="s">
-        <v>92</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="s">
         <v>95</v>
       </c>
-      <c r="Y10" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="s">
         <v>96</v>
       </c>
-      <c r="AC10" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10" t="s">
+      <c r="AG10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI10" t="s">
         <v>97</v>
       </c>
-      <c r="AG10" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI10" t="s">
+      <c r="AJ10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL10" t="s">
         <v>98</v>
       </c>
-      <c r="AJ10" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL10" t="s">
+      <c r="AM10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO10" t="s">
         <v>99</v>
       </c>
-      <c r="AM10" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO10" t="s">
+      <c r="AP10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR10" t="s">
         <v>100</v>
       </c>
-      <c r="AP10" t="s">
-        <v>92</v>
-      </c>
-      <c r="AR10" t="s">
-        <v>101</v>
-      </c>
       <c r="AS10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AT10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:46">
@@ -2053,118 +2050,118 @@
         <v>0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K11" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11" t="s">
         <v>86</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
+        <v>85</v>
+      </c>
+      <c r="N11" t="s">
         <v>87</v>
       </c>
-      <c r="M11" t="s">
-        <v>86</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>88</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>89</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>90</v>
       </c>
-      <c r="Q11" t="s">
-        <v>91</v>
-      </c>
       <c r="R11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S11">
         <v>106196000</v>
       </c>
       <c r="T11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W11">
         <v>199504000</v>
       </c>
       <c r="X11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Y11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA11">
         <v>59600000</v>
       </c>
       <c r="AB11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AC11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AD11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE11">
         <v>305700000</v>
       </c>
       <c r="AF11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AG11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH11">
         <v>244700000</v>
       </c>
       <c r="AI11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK11">
         <v>23</v>
       </c>
       <c r="AL11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AM11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AN11">
         <v>61000000</v>
       </c>
       <c r="AO11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AP11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AQ11">
         <v>304300000</v>
       </c>
       <c r="AR11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AS11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AT11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:46">
@@ -2187,103 +2184,103 @@
         <v>0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K12" t="s">
+        <v>85</v>
+      </c>
+      <c r="L12" t="s">
         <v>86</v>
       </c>
-      <c r="L12" t="s">
-        <v>87</v>
-      </c>
       <c r="M12" t="s">
+        <v>85</v>
+      </c>
+      <c r="N12" t="s">
         <v>86</v>
       </c>
-      <c r="N12" t="s">
-        <v>87</v>
-      </c>
       <c r="O12" t="s">
+        <v>88</v>
+      </c>
+      <c r="P12" t="s">
         <v>89</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>90</v>
       </c>
-      <c r="Q12" t="s">
-        <v>91</v>
-      </c>
       <c r="R12" t="s">
+        <v>91</v>
+      </c>
+      <c r="T12" t="s">
         <v>92</v>
       </c>
-      <c r="T12" t="s">
-        <v>93</v>
-      </c>
       <c r="U12" t="s">
+        <v>93</v>
+      </c>
+      <c r="V12" t="s">
+        <v>91</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12" t="s">
         <v>94</v>
       </c>
-      <c r="V12" t="s">
-        <v>92</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="s">
         <v>95</v>
       </c>
-      <c r="Y12" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="s">
         <v>96</v>
       </c>
-      <c r="AC12" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12" t="s">
+      <c r="AG12" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI12" t="s">
         <v>97</v>
       </c>
-      <c r="AG12" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI12" t="s">
+      <c r="AJ12" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL12" t="s">
         <v>98</v>
       </c>
-      <c r="AJ12" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL12" t="s">
+      <c r="AM12" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO12" t="s">
         <v>99</v>
       </c>
-      <c r="AM12" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO12" t="s">
+      <c r="AP12" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR12" t="s">
         <v>100</v>
       </c>
-      <c r="AP12" t="s">
-        <v>92</v>
-      </c>
-      <c r="AR12" t="s">
-        <v>101</v>
-      </c>
       <c r="AS12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AT12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:46">
@@ -2306,118 +2303,118 @@
         <v>0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K13" t="s">
         <v>85</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>86</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
+        <v>85</v>
+      </c>
+      <c r="N13" t="s">
         <v>87</v>
       </c>
-      <c r="M13" t="s">
-        <v>86</v>
-      </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>88</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>89</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>90</v>
       </c>
-      <c r="Q13" t="s">
-        <v>91</v>
-      </c>
       <c r="R13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S13">
         <v>183660000</v>
       </c>
       <c r="T13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W13">
         <v>144528000</v>
       </c>
       <c r="X13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Y13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA13">
         <v>23000000</v>
       </c>
       <c r="AB13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AC13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AD13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE13">
         <v>328188000</v>
       </c>
       <c r="AF13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AG13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH13">
         <v>293188000</v>
       </c>
       <c r="AI13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK13">
         <v>30</v>
       </c>
       <c r="AL13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AM13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AN13">
         <v>35000000</v>
       </c>
       <c r="AO13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AP13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AQ13">
         <v>316188000</v>
       </c>
       <c r="AR13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AS13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AT13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
